--- a/Excel_Files/Stats_Populations/1.5_cm/701_nm_s.xlsx
+++ b/Excel_Files/Stats_Populations/1.5_cm/701_nm_s.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Quantiles</t>
   </si>
@@ -61,136 +61,142 @@
     <t>Min_DR</t>
   </si>
   <si>
-    <t>2.78 E-4</t>
-  </si>
-  <si>
-    <t>1.31 E-4</t>
-  </si>
-  <si>
-    <t>7.69 E-5</t>
-  </si>
-  <si>
-    <t>3.61 E-6</t>
-  </si>
-  <si>
-    <t>2.17 E-6</t>
-  </si>
-  <si>
-    <t>1.29 E-6</t>
-  </si>
-  <si>
-    <t>4.53 E-4</t>
-  </si>
-  <si>
-    <t>3.59 E-4</t>
-  </si>
-  <si>
-    <t>1.50 E-4</t>
-  </si>
-  <si>
-    <t>4.76 E-6</t>
-  </si>
-  <si>
-    <t>2.12 E-6</t>
-  </si>
-  <si>
-    <t>7.89 E-7</t>
-  </si>
-  <si>
-    <t>2.49 E-4</t>
-  </si>
-  <si>
-    <t>1.86 E-4</t>
-  </si>
-  <si>
-    <t>1.29 E-4</t>
-  </si>
-  <si>
-    <t>3.84 E-6</t>
-  </si>
-  <si>
-    <t>1.79 E-6</t>
-  </si>
-  <si>
-    <t>4.49 E-7</t>
-  </si>
-  <si>
-    <t>2.63 E-4</t>
-  </si>
-  <si>
-    <t>6.97 E-5</t>
-  </si>
-  <si>
-    <t>3.95 E-5</t>
-  </si>
-  <si>
-    <t>1.83 E-6</t>
-  </si>
-  <si>
-    <t>7.64 E-7</t>
-  </si>
-  <si>
-    <t>1.78 E-7</t>
-  </si>
-  <si>
-    <t>1.55 E-4</t>
-  </si>
-  <si>
-    <t>9.83 E-5</t>
-  </si>
-  <si>
-    <t>3.37 E-5</t>
-  </si>
-  <si>
-    <t>9.82 E-7</t>
-  </si>
-  <si>
-    <t>5.47 E-7</t>
-  </si>
-  <si>
-    <t>2.36 E-7</t>
+    <t>2.42 E-3</t>
+  </si>
+  <si>
+    <t>1.78 E-3</t>
+  </si>
+  <si>
+    <t>1.46 E-3</t>
+  </si>
+  <si>
+    <t>3.42 E-4</t>
+  </si>
+  <si>
+    <t>2.70 E-4</t>
+  </si>
+  <si>
+    <t>2.09 E-4</t>
+  </si>
+  <si>
+    <t>2.14 E-3</t>
+  </si>
+  <si>
+    <t>2.01 E-3</t>
+  </si>
+  <si>
+    <t>1.76 E-3</t>
+  </si>
+  <si>
+    <t>3.94 E-4</t>
+  </si>
+  <si>
+    <t>2.72 E-4</t>
+  </si>
+  <si>
+    <t>1.67 E-4</t>
+  </si>
+  <si>
+    <t>2.23 E-3</t>
+  </si>
+  <si>
+    <t>1.95 E-3</t>
+  </si>
+  <si>
+    <t>1.72 E-3</t>
+  </si>
+  <si>
+    <t>3.53 E-4</t>
+  </si>
+  <si>
+    <t>2.45 E-4</t>
+  </si>
+  <si>
+    <t>1.24 E-4</t>
+  </si>
+  <si>
+    <t>2.06 E-3</t>
+  </si>
+  <si>
+    <t>1.41 E-3</t>
+  </si>
+  <si>
+    <t>1.07 E-3</t>
+  </si>
+  <si>
+    <t>2.46 E-4</t>
+  </si>
+  <si>
+    <t>1.63 E-4</t>
+  </si>
+  <si>
+    <t>7.77 E-5</t>
+  </si>
+  <si>
+    <t>1.81 E-3</t>
+  </si>
+  <si>
+    <t>1.60 E-3</t>
+  </si>
+  <si>
+    <t>1.00 E-3</t>
   </si>
   <si>
     <t>1.87 E-4</t>
   </si>
   <si>
-    <t>9.39 E-5</t>
-  </si>
-  <si>
-    <t>8.10 E-7</t>
-  </si>
-  <si>
-    <t>4.72 E-4</t>
-  </si>
-  <si>
-    <t>2.37 E-4</t>
-  </si>
-  <si>
-    <t>3.11 E-6</t>
-  </si>
-  <si>
-    <t>2.04 E-6</t>
-  </si>
-  <si>
-    <t>1.22 E-6</t>
-  </si>
-  <si>
-    <t>6.03 E-4</t>
-  </si>
-  <si>
-    <t>1.47 E-4</t>
-  </si>
-  <si>
-    <t>4.29 E-5</t>
-  </si>
-  <si>
-    <t>2.87 E-6</t>
-  </si>
-  <si>
-    <t>1.77 E-6</t>
-  </si>
-  <si>
-    <t>9.92 E-7</t>
+    <t>1.39 E-4</t>
+  </si>
+  <si>
+    <t>9.29 E-5</t>
+  </si>
+  <si>
+    <t>1.91 E-3</t>
+  </si>
+  <si>
+    <t>1.54 E-3</t>
+  </si>
+  <si>
+    <t>2.66 E-4</t>
+  </si>
+  <si>
+    <t>1.68 E-4</t>
+  </si>
+  <si>
+    <t>2.69 E-3</t>
+  </si>
+  <si>
+    <t>2.13 E-3</t>
+  </si>
+  <si>
+    <t>1.88 E-3</t>
+  </si>
+  <si>
+    <t>3.14 E-4</t>
+  </si>
+  <si>
+    <t>2.59 E-4</t>
+  </si>
+  <si>
+    <t>1.99 E-4</t>
+  </si>
+  <si>
+    <t>2.72 E-3</t>
+  </si>
+  <si>
+    <t>1.83 E-3</t>
+  </si>
+  <si>
+    <t>1.13 E-3</t>
+  </si>
+  <si>
+    <t>2.94 E-4</t>
+  </si>
+  <si>
+    <t>2.30 E-4</t>
+  </si>
+  <si>
+    <t>1.79 E-4</t>
   </si>
 </sst>
 </file>
@@ -606,13 +612,13 @@
         <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -641,10 +647,10 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -673,10 +679,10 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -702,13 +708,13 @@
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -734,13 +740,13 @@
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -769,10 +775,10 @@
         <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
